--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H2">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I2">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J2">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0002123333333333333</v>
+        <v>0.220618</v>
       </c>
       <c r="N2">
-        <v>0.000637</v>
+        <v>0.6618539999999999</v>
       </c>
       <c r="O2">
-        <v>0.0008844802186068535</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P2">
-        <v>0.0008844802186068534</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q2">
-        <v>0.001881261442666667</v>
+        <v>1.358257734811333</v>
       </c>
       <c r="R2">
-        <v>0.016931352984</v>
+        <v>12.224319613302</v>
       </c>
       <c r="S2">
-        <v>0.0004352640660806446</v>
+        <v>0.2557160345485244</v>
       </c>
       <c r="T2">
-        <v>0.0004352640660806446</v>
+        <v>0.2557160345485244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H3">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I3">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J3">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.220618</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N3">
-        <v>0.6618539999999999</v>
+        <v>0.337646</v>
       </c>
       <c r="O3">
-        <v>0.9189902207312721</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P3">
-        <v>0.9189902207312721</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q3">
-        <v>1.954663125392</v>
+        <v>0.6929176089108889</v>
       </c>
       <c r="R3">
-        <v>17.591968128528</v>
+        <v>6.236258480198</v>
       </c>
       <c r="S3">
-        <v>0.4522468809917408</v>
+        <v>0.1304539916676051</v>
       </c>
       <c r="T3">
-        <v>0.4522468809917409</v>
+        <v>0.1304539916676051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.859944</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H4">
-        <v>26.579832</v>
+        <v>17.603933</v>
       </c>
       <c r="I4">
-        <v>0.4921128329655918</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J4">
-        <v>0.4921128329655918</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01923533333333333</v>
+        <v>0.220618</v>
       </c>
       <c r="N4">
-        <v>0.05770599999999999</v>
+        <v>0.6618539999999999</v>
       </c>
       <c r="O4">
-        <v>0.080125299050121</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P4">
-        <v>0.080125299050121</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q4">
-        <v>0.1704239761546666</v>
+        <v>1.294581496864667</v>
       </c>
       <c r="R4">
-        <v>1.533815785392</v>
+        <v>11.651233471782</v>
       </c>
       <c r="S4">
-        <v>0.03943068790777029</v>
+        <v>0.2437278568666564</v>
       </c>
       <c r="T4">
-        <v>0.03943068790777029</v>
+        <v>0.2437278568666564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.867977666666666</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H5">
         <v>17.603933</v>
       </c>
       <c r="I5">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J5">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0002123333333333333</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N5">
-        <v>0.000637</v>
+        <v>0.337646</v>
       </c>
       <c r="O5">
-        <v>0.0008844802186068535</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P5">
-        <v>0.0008844802186068534</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q5">
-        <v>0.001245967257888889</v>
+        <v>0.6604330624131112</v>
       </c>
       <c r="R5">
-        <v>0.011213705321</v>
+        <v>5.943897561718001</v>
       </c>
       <c r="S5">
-        <v>0.0002882771966576477</v>
+        <v>0.1243382014154165</v>
       </c>
       <c r="T5">
-        <v>0.0002882771966576478</v>
+        <v>0.1243382014154165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.867977666666666</v>
+        <v>3.918147666666667</v>
       </c>
       <c r="H6">
-        <v>17.603933</v>
+        <v>11.754443</v>
       </c>
       <c r="I6">
-        <v>0.325928370802587</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="J6">
-        <v>0.325928370802587</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>0.6618539999999999</v>
       </c>
       <c r="O6">
-        <v>0.9189902207312721</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="P6">
-        <v>0.9189902207312721</v>
+        <v>0.6621850925462731</v>
       </c>
       <c r="Q6">
-        <v>1.294581496864666</v>
+        <v>0.8644139019246667</v>
       </c>
       <c r="R6">
-        <v>11.651233471782</v>
+        <v>7.779725117322001</v>
       </c>
       <c r="S6">
-        <v>0.2995249854264533</v>
+        <v>0.1627412011310922</v>
       </c>
       <c r="T6">
-        <v>0.2995249854264533</v>
+        <v>0.1627412011310922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.867977666666666</v>
+        <v>3.918147666666667</v>
       </c>
       <c r="H7">
-        <v>17.603933</v>
+        <v>11.754443</v>
       </c>
       <c r="I7">
-        <v>0.325928370802587</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="J7">
-        <v>0.325928370802587</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.01923533333333333</v>
+        <v>0.1125486666666667</v>
       </c>
       <c r="N7">
-        <v>0.05770599999999999</v>
+        <v>0.337646</v>
       </c>
       <c r="O7">
-        <v>0.080125299050121</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="P7">
-        <v>0.080125299050121</v>
+        <v>0.3378149074537269</v>
       </c>
       <c r="Q7">
-        <v>0.1128725064108888</v>
+        <v>0.4409822956864445</v>
       </c>
       <c r="R7">
-        <v>1.015852557698</v>
+        <v>3.968840661178</v>
       </c>
       <c r="S7">
-        <v>0.02611510817947601</v>
+        <v>0.08302271437070528</v>
       </c>
       <c r="T7">
-        <v>0.02611510817947601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>3.275965666666667</v>
-      </c>
-      <c r="H8">
-        <v>9.827897</v>
-      </c>
-      <c r="I8">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="J8">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0002123333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.000637</v>
-      </c>
-      <c r="O8">
-        <v>0.0008844802186068535</v>
-      </c>
-      <c r="P8">
-        <v>0.0008844802186068534</v>
-      </c>
-      <c r="Q8">
-        <v>0.0006955967098888889</v>
-      </c>
-      <c r="R8">
-        <v>0.006260370389</v>
-      </c>
-      <c r="S8">
-        <v>0.0001609389558685611</v>
-      </c>
-      <c r="T8">
-        <v>0.0001609389558685611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>3.275965666666667</v>
-      </c>
-      <c r="H9">
-        <v>9.827897</v>
-      </c>
-      <c r="I9">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="J9">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.220618</v>
-      </c>
-      <c r="N9">
-        <v>0.6618539999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9189902207312721</v>
-      </c>
-      <c r="P9">
-        <v>0.9189902207312721</v>
-      </c>
-      <c r="Q9">
-        <v>0.7227369934486666</v>
-      </c>
-      <c r="R9">
-        <v>6.504632941037999</v>
-      </c>
-      <c r="S9">
-        <v>0.1672183543130779</v>
-      </c>
-      <c r="T9">
-        <v>0.1672183543130779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>3.275965666666667</v>
-      </c>
-      <c r="H10">
-        <v>9.827897</v>
-      </c>
-      <c r="I10">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="J10">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01923533333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.05770599999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.080125299050121</v>
-      </c>
-      <c r="P10">
-        <v>0.080125299050121</v>
-      </c>
-      <c r="Q10">
-        <v>0.06301429158688887</v>
-      </c>
-      <c r="R10">
-        <v>0.5671286242819999</v>
-      </c>
-      <c r="S10">
-        <v>0.0145795029628747</v>
-      </c>
-      <c r="T10">
-        <v>0.0145795029628747</v>
+        <v>0.08302271437070528</v>
       </c>
     </row>
   </sheetData>
